--- a/medicine/Psychotrope/Tabatière_Choiseul/Tabatière_Choiseul.xlsx
+++ b/medicine/Psychotrope/Tabatière_Choiseul/Tabatière_Choiseul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tabati%C3%A8re_Choiseul</t>
+          <t>Tabatière_Choiseul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tabatière Choiseul est une tabatière créée pour le duc de Choiseul (1719-1785).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tabati%C3%A8re_Choiseul</t>
+          <t>Tabatière_Choiseul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On ignore les circonstances de la création de la tabatière. Est-ce une commande du duc lui-même? Est-ce la commande d'un proche souhaitant faire un cadeau au duc de Choiseul? Le duc de Choiseul a exercé divers ministères importants sous Louis XV sous la protection de madame de Pompadour. Mais l'influence de madame du Barry met fin à son dernier ministère de 12 ans le 24 décembre 1770. Le duc est exilé, ses collections dispersées, son hôtel situé rue de Richelieu détruit pour une opération immobilière.
-Propriété de la famille Rothschild depuis le milieu du XIXe siècle, le Louvre l'a acquise début 2023 pour un prix de 3 900 000 euros dans le cadre d'une campagne de mécénat[1].
+Propriété de la famille Rothschild depuis le milieu du XIXe siècle, le Louvre l'a acquise début 2023 pour un prix de 3 900 000 euros dans le cadre d'une campagne de mécénat.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tabati%C3%A8re_Choiseul</t>
+          <t>Tabatière_Choiseul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,24 +557,236 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Source[2] :  La tabatière a la forme d'un parallélépipède avec des coins coupés. Chacune des six faces est décorée d'une fine gravure représentant un lieu lié à la vie du duc de Choiseul derrière une plaque de cristal. Même ses coins coupés sont décorés de gravures étroites représentant les pièces de son hôtel.
-Couvercle : la chambre bleue de l'hôtel de Choiseul
-La pièce comporte sur la gauche un lit à la polonaise bleu, des murs bleu décoré de nombreuses peintures. Le sol est une riche marqueterie à motifs concentriques. Sur la droite du mobilier et une fenêtre ouvrant sur l'extérieur. Il est à noter que les peintures sont les réelles peintures présentes dans l'hôtel et dont beaucoup sont identifiables.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Source :  La tabatière a la forme d'un parallélépipède avec des coins coupés. Chacune des six faces est décorée d'une fine gravure représentant un lieu lié à la vie du duc de Choiseul derrière une plaque de cristal. Même ses coins coupés sont décorés de gravures étroites représentant les pièces de son hôtel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tabatière_Choiseul</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabati%C3%A8re_Choiseul</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Couvercle : la chambre bleue de l'hôtel de Choiseul</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pièce comporte sur la gauche un lit à la polonaise bleu, des murs bleu décoré de nombreuses peintures. Le sol est une riche marqueterie à motifs concentriques. Sur la droite du mobilier et une fenêtre ouvrant sur l'extérieur. Il est à noter que les peintures sont les réelles peintures présentes dans l'hôtel et dont beaucoup sont identifiables.
 Sur la gauche, des personnes de qualité devisent. Sur la droite, le duc accueille une femme à laquelle un valet apporte un siège. C'est peut-être la duchesse de Gramont, sa sœur. Des chiens jouent sur le parquet.
-Sous la boîte : galerie des peintures de l'hôtel de Choiseul
-C'est la pièce où le duc de Choiseul expose sa collection de 24 peintures principalement flamandes et hollandaises. Ici aussi, la plupart des peintures sont identifiables. Sur la gauche, des amateurs admirent de près des peintures. Sur la droite un groupe d'hommes discute autour du duc de Choiseul en uniforme de colonel général des Suisses et avec une loupe à la main. Au sol, une marqueterie remarquable.
-Face latérale gauche : la chambre blanche de l'hôtel de Choiseul
-C'est une scène presque intimiste : des serviteurs finissent d'habiller le duc dans sa chambre avec un lit à baldaquin et des murs tendus de blanc. Un valet s'apprête à lui passer le cordon de l'ordre du Saint-Esprit facilement reconnaissable à sa couleur bleue.
-Face latérale droite : le cabinet octogone
-C'est une pièce de forme octogonale aménagée par le duc de Choiseul en 1763 avec une couleur verte dominante pour exposer des peintures. Elle est dotée d'un éclairage zénithal qui était une nouveauté à l'époque. Le ministre est représenté seul, faisant les cent pas et lisant des documents. Il se reflète dans un des grands miroirs dont la pièce est dotée.
-Face antérieure : l'appartement du ministre à Versailles
-C'est une salle de travail avec une table où le duc dicte à deux secrétaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tabatière_Choiseul</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabati%C3%A8re_Choiseul</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous la boîte : galerie des peintures de l'hôtel de Choiseul</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la pièce où le duc de Choiseul expose sa collection de 24 peintures principalement flamandes et hollandaises. Ici aussi, la plupart des peintures sont identifiables. Sur la gauche, des amateurs admirent de près des peintures. Sur la droite un groupe d'hommes discute autour du duc de Choiseul en uniforme de colonel général des Suisses et avec une loupe à la main. Au sol, une marqueterie remarquable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tabatière_Choiseul</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabati%C3%A8re_Choiseul</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Face latérale gauche : la chambre blanche de l'hôtel de Choiseul</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une scène presque intimiste : des serviteurs finissent d'habiller le duc dans sa chambre avec un lit à baldaquin et des murs tendus de blanc. Un valet s'apprête à lui passer le cordon de l'ordre du Saint-Esprit facilement reconnaissable à sa couleur bleue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tabatière_Choiseul</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabati%C3%A8re_Choiseul</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Face latérale droite : le cabinet octogone</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une pièce de forme octogonale aménagée par le duc de Choiseul en 1763 avec une couleur verte dominante pour exposer des peintures. Elle est dotée d'un éclairage zénithal qui était une nouveauté à l'époque. Le ministre est représenté seul, faisant les cent pas et lisant des documents. Il se reflète dans un des grands miroirs dont la pièce est dotée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tabatière_Choiseul</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabati%C3%A8re_Choiseul</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Face antérieure : l'appartement du ministre à Versailles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une salle de travail avec une table où le duc dicte à deux secrétaires.
 Le bureau sur lequel le ministre travaille est identifié. Après Choiseul, il fut la propriété de Talleyrand puis du chancelier autrichien Metternich.
 Les peintures accrochées sur les murs sont politiques : le roi Louis XV peint par Louis-Michel van Loo, madame de Pompadour protectrice du duc, la duchesse de Gramont sœur du duc, une vue imaginaire de Rome en souvenir de la première ambassade du duc.
-Face postérieure : les plans-reliefs dans la grande galerie du Louvre
-Les plans-reliefs sont des maquettes des fortifications, notamment celles construites par Vauban pendant le règne de Louis XIV : Grenoble, Brest, Cherbourg.... Au nombre de 144 et à l'échelle 1/600, ces maquettes ont été réalisées par Louvois afin d'éclairer Louis XIV qui ne quittait plus guère son cabinet de travail. Sous Louis XV, elles étaient exposées dans la Grande Galerie du Louvre. Elles sont maintenant au Musée de l'Armée des Invalides. C'est le sujet de cette face de la tabatière. La tabatière présente aussi le projet non abouti de décoration de la grande galerie par Nicolas Poussin[3]. Le duc de Choiseul avec son grand cordon de l'Ordre du Saint-Esprit se trouve au centre d'un groupe d'ingénieurs militaires avec qui il discute et auxquels il commente une carte. Cette gravure est un témoignage unique de l'aménagement de la grande galerie à cette époque. Mais la largeur de la galerie est exagérée par rapport à la réalité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tabatière_Choiseul</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabati%C3%A8re_Choiseul</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Face postérieure : les plans-reliefs dans la grande galerie du Louvre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plans-reliefs sont des maquettes des fortifications, notamment celles construites par Vauban pendant le règne de Louis XIV : Grenoble, Brest, Cherbourg.... Au nombre de 144 et à l'échelle 1/600, ces maquettes ont été réalisées par Louvois afin d'éclairer Louis XIV qui ne quittait plus guère son cabinet de travail. Sous Louis XV, elles étaient exposées dans la Grande Galerie du Louvre. Elles sont maintenant au Musée de l'Armée des Invalides. C'est le sujet de cette face de la tabatière. La tabatière présente aussi le projet non abouti de décoration de la grande galerie par Nicolas Poussin. Le duc de Choiseul avec son grand cordon de l'Ordre du Saint-Esprit se trouve au centre d'un groupe d'ingénieurs militaires avec qui il discute et auxquels il commente une carte. Cette gravure est un témoignage unique de l'aménagement de la grande galerie à cette époque. Mais la largeur de la galerie est exagérée par rapport à la réalité.
 </t>
         </is>
       </c>
